--- a/BackTest/2020-01-12 BackTest BCH.xlsx
+++ b/BackTest/2020-01-12 BackTest BCH.xlsx
@@ -521,13 +521,17 @@
         <v>296578.3333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>293500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>293500</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -556,14 +560,22 @@
         <v>296506.6666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>294100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -591,14 +603,22 @@
         <v>296435</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>293200</v>
+      </c>
+      <c r="K6" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,14 +646,22 @@
         <v>296320</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>293900</v>
+      </c>
+      <c r="K7" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -661,14 +689,22 @@
         <v>296151.6666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>293500</v>
+      </c>
+      <c r="K8" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -696,14 +732,22 @@
         <v>296011.6666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>293900</v>
+      </c>
+      <c r="K9" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -731,14 +775,22 @@
         <v>295860</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>293800</v>
+      </c>
+      <c r="K10" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +824,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +865,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +906,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +947,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +988,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1029,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1070,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1357,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>293500</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1256,18 +1392,18 @@
         <v>294506.6666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>293500</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1297,15 +1433,15 @@
         <v>294430</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>291300</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>293500</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1344,9 +1480,11 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>292000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>293500</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1385,9 +1523,11 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>292200</v>
+      </c>
+      <c r="K28" t="n">
+        <v>293500</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,9 +1566,11 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>291600</v>
+      </c>
+      <c r="K29" t="n">
+        <v>293500</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1469,7 +1611,9 @@
       <c r="J30" t="n">
         <v>291800</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>293500</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,7 +1654,9 @@
       <c r="J31" t="n">
         <v>292000</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>293500</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1551,7 +1697,9 @@
       <c r="J32" t="n">
         <v>291600</v>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>293500</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,15 +1732,15 @@
         <v>294108.3333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>293500</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1625,15 +1773,15 @@
         <v>294085</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>293500</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1666,15 +1814,15 @@
         <v>294056.6666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>293500</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1707,15 +1855,15 @@
         <v>294021.6666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>293500</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1748,15 +1896,15 @@
         <v>293971.6666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>293500</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1789,15 +1937,15 @@
         <v>293918.3333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>293500</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1830,15 +1978,15 @@
         <v>293846.6666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>293500</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1871,15 +2019,15 @@
         <v>293775</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>291400</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>293500</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1912,15 +2060,15 @@
         <v>293701.6666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>293500</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,15 +2101,15 @@
         <v>293625</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>291400</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>293500</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,15 +2142,15 @@
         <v>293556.6666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>291300</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>293500</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,15 +2183,15 @@
         <v>293493.3333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>291500</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>293500</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2076,15 +2224,15 @@
         <v>293420</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>293500</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2117,15 +2265,15 @@
         <v>293328.3333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>291400</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>293500</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,15 +2306,15 @@
         <v>293240</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>293500</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2199,15 +2347,15 @@
         <v>293150</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>293500</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2240,15 +2388,15 @@
         <v>293095</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>293500</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2281,15 +2429,15 @@
         <v>293040</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>293500</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2322,15 +2470,15 @@
         <v>292976.6666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>293500</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,15 +2511,15 @@
         <v>292903.3333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>293500</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,15 +2552,15 @@
         <v>292835</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>293500</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,15 +2593,15 @@
         <v>292778.3333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>293500</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,15 +2634,15 @@
         <v>292726.6666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>293500</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,15 +2675,15 @@
         <v>292683.3333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>293500</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,15 +2716,15 @@
         <v>292656.6666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>293500</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2609,15 +2757,15 @@
         <v>292635</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>293600</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>293500</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,15 +2798,15 @@
         <v>292625</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>293900</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>293500</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,15 +2839,15 @@
         <v>292646.6666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>294400</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>293500</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,15 +2880,15 @@
         <v>292663.3333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>295900</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>293500</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,15 +2921,15 @@
         <v>292691.6666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>296300</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>293500</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,15 +2962,15 @@
         <v>292735</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>295500</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>293500</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,7 +3009,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>293500</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,7 +3050,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>293500</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,7 +3091,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>293500</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,7 +3132,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>293500</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,7 +3173,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>293500</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3214,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>293500</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,7 +3255,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>293500</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,7 +3296,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>293500</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,7 +3337,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>293500</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,7 +3378,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>293500</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,7 +3419,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>293500</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,7 +3460,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>293500</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,7 +3501,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>293500</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,7 +3542,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>293500</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,7 +3583,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>293500</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,7 +3624,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>293500</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,7 +3665,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>293500</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,7 +3706,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>293500</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,7 +3747,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>293500</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,7 +3788,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>293500</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,7 +3829,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>293500</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>293500</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,7 +3911,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>293500</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>293500</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,7 +3993,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>293500</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,7 +4034,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>293500</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,7 +4075,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>293500</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,7 +4116,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>293500</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,7 +4157,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>293500</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,7 +4198,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>293500</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,7 +4239,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>293500</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,15 +4274,15 @@
         <v>294035</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>292700</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>293500</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,7 +4321,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>293500</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4144,15 +4356,15 @@
         <v>294063.3333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>293500</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,15 +4397,15 @@
         <v>294073.3333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>293500</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,15 +4438,15 @@
         <v>294100</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>293600</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>293500</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,15 +4479,15 @@
         <v>294115</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>293500</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,15 +4520,15 @@
         <v>294138.3333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>292400</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>293500</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,15 +4561,15 @@
         <v>294161.6666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>293500</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,15 +4602,15 @@
         <v>294185</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>293500</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,15 +4643,15 @@
         <v>294198.3333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>293500</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,15 +4684,15 @@
         <v>294218.3333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>293500</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4513,15 +4725,15 @@
         <v>294235</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>293500</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,9 +4772,11 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>292400</v>
+      </c>
+      <c r="K107" t="n">
+        <v>293500</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,9 +4815,11 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>292100</v>
+      </c>
+      <c r="K108" t="n">
+        <v>293500</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,9 +4858,11 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>291900</v>
+      </c>
+      <c r="K109" t="n">
+        <v>293500</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,9 +4901,11 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>291400</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>291800</v>
+      </c>
+      <c r="K110" t="n">
+        <v>293500</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,9 +4944,11 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>291300</v>
+      </c>
+      <c r="K111" t="n">
+        <v>293500</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,7 +4989,9 @@
       <c r="J112" t="n">
         <v>292600</v>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>293500</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,15 +5024,15 @@
         <v>294238.3333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>293500</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,15 +5065,15 @@
         <v>294243.3333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>293500</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,15 +5106,15 @@
         <v>294246.6666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>292700</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>293500</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,15 +5147,15 @@
         <v>294248.3333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>293500</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,15 +5188,15 @@
         <v>294226.6666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>293500</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,15 +5229,15 @@
         <v>294210</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>292600</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>293500</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,15 +5270,15 @@
         <v>294183.3333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>292400</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>293500</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,15 +5311,15 @@
         <v>294130</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>293500</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,15 +5352,15 @@
         <v>294075</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>292400</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>293500</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,15 +5393,15 @@
         <v>294025</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>293500</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,15 +5434,15 @@
         <v>293978.3333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>293500</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5251,15 +5475,15 @@
         <v>293943.3333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>293600</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>293500</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,15 +5516,15 @@
         <v>293905</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>294200</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>293500</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,15 +5557,15 @@
         <v>293870</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>294300</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>293500</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5374,15 +5598,15 @@
         <v>293820</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>294200</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>293500</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,15 +5639,15 @@
         <v>293770</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>294000</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>293500</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,15 +5680,15 @@
         <v>293738.3333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>294000</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>293500</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,15 +5721,15 @@
         <v>293713.3333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>294100</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>293500</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,15 +5762,15 @@
         <v>293686.6666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>294200</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>293500</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,15 +5803,15 @@
         <v>293655</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>294800</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>293500</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5626,7 +5850,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>293500</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,7 +5891,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>293500</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5704,7 +5932,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>293500</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,7 +5973,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>293500</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,7 +6014,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>293500</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,7 +6055,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>293500</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,7 +6096,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>293500</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5899,7 +6137,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>293500</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,7 +6178,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>293500</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,7 +6219,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>293500</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6016,7 +6260,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>293500</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,7 +6301,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>293500</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6094,7 +6342,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>293500</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6133,7 +6383,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>293500</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6172,7 +6424,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>293500</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>293500</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,7 +6506,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>293500</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,7 +6547,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>293500</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,7 +6588,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>293500</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,7 +6629,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>293500</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,7 +6670,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>293500</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6445,7 +6711,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>293500</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6484,7 +6752,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>293500</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,7 +6793,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>293500</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,7 +6834,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>293500</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,7 +6875,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>293500</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,7 +6916,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>293500</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6679,7 +6957,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>293500</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6718,7 +6998,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>293500</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,7 +7039,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>293500</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,15 +7074,15 @@
         <v>293490</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>293500</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,15 +7115,15 @@
         <v>293501.6666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>292400</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>293500</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,15 +7156,15 @@
         <v>293493.3333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>293500</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,15 +7197,15 @@
         <v>293485</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>293500</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,15 +7238,15 @@
         <v>293488.3333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>293500</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6995,15 +7279,15 @@
         <v>293493.3333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>293500</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,15 +7320,15 @@
         <v>293505</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>293500</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,15 +7361,15 @@
         <v>293536.6666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>292700</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>293500</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,15 +7402,15 @@
         <v>293543.3333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>293500</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,15 +7443,15 @@
         <v>293555</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>293500</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,15 +7484,15 @@
         <v>293565</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>293500</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,15 +7525,15 @@
         <v>293568.3333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>292200</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>293500</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,15 +7566,15 @@
         <v>293563.3333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>293500</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,15 +7607,15 @@
         <v>293555</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>293500</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,15 +7648,15 @@
         <v>293556.6666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>293500</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,15 +7689,15 @@
         <v>293543.3333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>293500</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,15 +7730,15 @@
         <v>293530</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>293500</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,15 +7771,15 @@
         <v>293520</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>293500</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,15 +7812,15 @@
         <v>293520</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>292400</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>293500</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,15 +7853,15 @@
         <v>293496.6666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>293500</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7610,15 +7894,15 @@
         <v>293473.3333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>293500</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,15 +7935,15 @@
         <v>293445</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>291700</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>293500</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7692,15 +7976,15 @@
         <v>293405</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>293500</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7733,15 +8017,15 @@
         <v>293358.3333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>293500</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,15 +8058,15 @@
         <v>293318.3333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>293500</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,15 +8099,15 @@
         <v>293290</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>293500</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7856,15 +8140,15 @@
         <v>293258.3333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>293500</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,15 +8181,15 @@
         <v>293238.3333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>292800</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>293500</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,15 +8222,15 @@
         <v>293208.3333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>293500</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7979,15 +8263,15 @@
         <v>293171.6666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>293500</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,15 +8304,15 @@
         <v>293116.6666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>292500</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>293500</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,15 +8345,15 @@
         <v>293065</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>293500</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,15 +8386,15 @@
         <v>293015</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>292100</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>293500</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8143,15 +8427,15 @@
         <v>292971.6666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>293500</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8184,15 +8468,15 @@
         <v>292963.3333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>293500</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,15 +8509,15 @@
         <v>292958.3333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>293500</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,15 +8550,15 @@
         <v>292948.3333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>293500</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8307,15 +8591,15 @@
         <v>292928.3333333333</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>293500</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,15 +8632,15 @@
         <v>292913.3333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>293500</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,15 +8673,15 @@
         <v>292895</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>293500</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8430,15 +8714,15 @@
         <v>292883.3333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>293500</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8471,15 +8755,15 @@
         <v>292880</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>293800</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>293500</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8512,15 +8796,15 @@
         <v>292886.6666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>293800</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>293500</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8553,15 +8837,15 @@
         <v>292885</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>294200</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>293500</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8594,15 +8878,15 @@
         <v>292846.6666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>293500</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,15 +8919,15 @@
         <v>292813.3333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>292000</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>293500</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8676,15 +8960,15 @@
         <v>292791.6666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>293500</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,15 +9001,15 @@
         <v>292778.3333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>293500</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,15 +9042,15 @@
         <v>292765</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>293500</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,15 +9083,15 @@
         <v>292755</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>293500</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,15 +9124,15 @@
         <v>292750</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>293500</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,15 +9165,15 @@
         <v>292733.3333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>293500</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,15 +9206,15 @@
         <v>292705</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>293500</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,15 +9247,15 @@
         <v>292683.3333333333</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>293500</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9004,15 +9288,15 @@
         <v>292666.6666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>293500</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,15 +9329,15 @@
         <v>292648.3333333333</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>292700</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>293500</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,15 +9370,15 @@
         <v>292636.6666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>293500</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,15 +9411,15 @@
         <v>292633.3333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>293500</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,15 +9452,15 @@
         <v>292640</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>293500</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,15 +9493,15 @@
         <v>292671.6666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>293500</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,15 +9534,15 @@
         <v>292690</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>293800</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>293500</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,15 +9575,15 @@
         <v>292691.6666666667</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>293500</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9332,15 +9616,15 @@
         <v>292705</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>293200</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>293500</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9373,15 +9657,15 @@
         <v>292723.3333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>293500</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,15 +9698,15 @@
         <v>292733.3333333333</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>293500</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,15 +9739,15 @@
         <v>292735</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>292900</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>293500</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,15 +9780,15 @@
         <v>292731.6666666667</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>292300</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>293500</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9543,7 +9827,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>293500</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,15 +9862,15 @@
         <v>292715</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>292700</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>293500</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9617,15 +9903,15 @@
         <v>292713.3333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>293200</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>293500</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,15 +9944,15 @@
         <v>292723.3333333333</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>293000</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>293500</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,15 +9985,15 @@
         <v>292738.3333333333</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>293100</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>293500</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9740,15 +10026,15 @@
         <v>292763.3333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>293500</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9781,15 +10067,15 @@
         <v>292785</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>293500</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,15 +10108,15 @@
         <v>292805</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>293500</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,15 +10149,15 @@
         <v>292831.6666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
         <v>293500</v>
       </c>
-      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9904,15 +10190,15 @@
         <v>292861.6666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>293300</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>293500</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9945,15 +10231,15 @@
         <v>292893.3333333333</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>293400</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>293500</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,15 +10272,15 @@
         <v>292920</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>293900</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>293500</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,15 +10313,15 @@
         <v>292963.3333333333</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>294200</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>293500</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,15 +10354,15 @@
         <v>293016.6666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>294900</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>293500</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10109,15 +10395,15 @@
         <v>293075</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>295500</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>293500</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,7 +10442,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>293500</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10195,7 +10483,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>293500</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,7 +10524,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>293500</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,7 +10565,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>293500</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,7 +10606,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>293500</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,7 +10647,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>293500</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10390,7 +10688,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>293500</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,7 +10729,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>293500</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,7 +10770,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>293500</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10811,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>293500</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,7 +10852,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>293500</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10585,7 +10893,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>293500</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10624,7 +10934,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>293500</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10663,7 +10975,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>293500</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10702,7 +11016,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>293500</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10741,7 +11057,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>293500</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10780,7 +11098,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>293500</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10819,7 +11139,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>293500</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10858,7 +11180,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>293500</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,7 +11221,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>293500</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10936,7 +11262,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>293500</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +11303,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>293500</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11014,7 +11344,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>293500</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,7 +11385,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>293500</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11092,7 +11426,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>293500</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11131,7 +11467,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>293500</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,7 +11508,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>293500</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11209,7 +11549,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>293500</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,7 +11590,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>293500</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11287,7 +11631,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>293500</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11326,7 +11672,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>293500</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,7 +11713,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>293500</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11404,7 +11754,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>293500</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11443,7 +11795,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>293500</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11482,7 +11836,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>293500</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11521,7 +11877,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>293500</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11560,7 +11918,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>293500</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11599,7 +11959,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>293500</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11638,7 +12000,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>293500</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11677,7 +12041,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>293500</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11716,7 +12082,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>293500</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11755,7 +12123,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>293500</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11794,7 +12164,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>293500</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11833,7 +12205,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>293500</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11872,7 +12246,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>293500</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,7 +12287,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>293500</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11950,7 +12328,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>293500</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,7 +12369,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>293500</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12028,7 +12410,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>293500</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12067,7 +12451,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>293500</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12106,7 +12492,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>293500</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,7 +12533,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>293500</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12184,7 +12574,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>293500</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12223,7 +12615,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>293500</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12262,7 +12656,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>293500</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,7 +12697,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>293500</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,7 +12738,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>293500</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,7 +12779,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>293500</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12418,7 +12820,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>293500</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12457,7 +12861,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>293500</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,7 +12902,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>293500</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,7 +12943,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>293500</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,7 +12984,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>293500</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12613,7 +13025,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>293500</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,7 +13066,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>293500</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12691,7 +13107,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>293500</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12730,7 +13148,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>293500</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12769,7 +13189,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>293500</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12805,17 +13227,19 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>293500</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>1</v>
+        <v>1.041678023850085</v>
       </c>
     </row>
     <row r="314">
@@ -12844,15 +13268,11 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12887,11 +13307,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12922,16 +13338,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12959,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -12994,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
@@ -13029,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -33431,14 +33845,20 @@
         <v>305186.6666666667</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>0</v>
       </c>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>299600</v>
+      </c>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -33466,14 +33886,20 @@
         <v>305041.6666666667</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>0</v>
       </c>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>299600</v>
+      </c>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -33508,7 +33934,11 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -33536,14 +33966,20 @@
         <v>304736.6666666667</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>0</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>298500</v>
+      </c>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -33571,14 +34007,20 @@
         <v>304571.6666666667</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I906" t="n">
         <v>0</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>298600</v>
+      </c>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr"/>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -33606,14 +34048,20 @@
         <v>304401.6666666667</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>0</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>298200</v>
+      </c>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -33641,14 +34089,20 @@
         <v>304231.6666666667</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>0</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>299000</v>
+      </c>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -33676,14 +34130,20 @@
         <v>304038.3333333333</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>0</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>298400</v>
+      </c>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -33711,14 +34171,20 @@
         <v>303863.3333333333</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>0</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>297900</v>
+      </c>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -33746,14 +34212,20 @@
         <v>303693.3333333333</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>0</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>299000</v>
+      </c>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -33788,7 +34260,11 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -33823,7 +34299,11 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr"/>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -33858,7 +34338,11 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr"/>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -33893,7 +34377,11 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr"/>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -33928,7 +34416,11 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr"/>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -33963,7 +34455,11 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr"/>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -33998,7 +34494,11 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr"/>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -34033,7 +34533,11 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr"/>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -34068,7 +34572,11 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -34103,7 +34611,11 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -34138,7 +34650,11 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -34173,7 +34689,11 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -34208,7 +34728,11 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr"/>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -34236,14 +34760,20 @@
         <v>301566.6666666667</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I925" t="n">
         <v>0</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>296500</v>
+      </c>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr"/>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -34271,14 +34801,20 @@
         <v>301425</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I926" t="n">
         <v>0</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>297500</v>
+      </c>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -34306,14 +34842,20 @@
         <v>301305</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I927" t="n">
         <v>0</v>
       </c>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>297900</v>
+      </c>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -34341,14 +34883,20 @@
         <v>301191.6666666667</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I928" t="n">
         <v>0</v>
       </c>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>299100</v>
+      </c>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -34376,14 +34924,20 @@
         <v>301080</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>0</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>299500</v>
+      </c>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr"/>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -34418,7 +34972,11 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -34453,7 +35011,11 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr"/>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -34488,7 +35050,11 @@
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr"/>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -34523,7 +35089,11 @@
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
-      <c r="L933" t="inlineStr"/>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -34558,7 +35128,11 @@
       </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr"/>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -34593,7 +35167,11 @@
       </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr"/>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -34628,7 +35206,11 @@
       </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr"/>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -34663,7 +35245,11 @@
       </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr"/>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -34698,7 +35284,11 @@
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr"/>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -34733,7 +35323,11 @@
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr"/>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -34768,7 +35362,11 @@
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr"/>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -34803,7 +35401,11 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr"/>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -34838,7 +35440,11 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr"/>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -34873,7 +35479,11 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr"/>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -34908,7 +35518,11 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr"/>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -34943,7 +35557,11 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr"/>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -34978,7 +35596,11 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr"/>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -35013,7 +35635,11 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr"/>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -35048,7 +35674,11 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr"/>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -35083,7 +35713,11 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr"/>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -35118,7 +35752,11 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr"/>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -35153,7 +35791,11 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr"/>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -35188,7 +35830,11 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr"/>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -35223,7 +35869,11 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr"/>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -35258,7 +35908,11 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr"/>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -35293,7 +35947,11 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr"/>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -35328,7 +35986,11 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr"/>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -35363,7 +36025,11 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr"/>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -35398,7 +36064,11 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr"/>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -35433,7 +36103,11 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -35468,7 +36142,11 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -35503,7 +36181,11 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -35538,7 +36220,11 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -35573,7 +36259,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -35608,7 +36298,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35643,7 +36337,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35678,7 +36376,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -35713,7 +36415,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -35748,7 +36454,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -35783,7 +36493,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -35818,7 +36532,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -35853,7 +36571,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -35888,7 +36610,11 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -35923,7 +36649,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -35958,7 +36688,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -35993,7 +36727,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -36028,7 +36766,11 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -36063,7 +36805,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -36098,7 +36844,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -36133,7 +36883,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -36168,7 +36922,11 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -36203,7 +36961,11 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -36238,7 +37000,11 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -36273,7 +37039,11 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -36308,7 +37078,11 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -36343,7 +37117,11 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -36378,7 +37156,11 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -36413,7 +37195,11 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -36448,7 +37234,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -36483,7 +37273,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -36518,7 +37312,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -36553,7 +37351,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -36588,7 +37390,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -36623,7 +37429,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -36658,7 +37468,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -36693,7 +37507,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -36728,7 +37546,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -36763,7 +37585,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -36798,7 +37624,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -36833,7 +37663,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -36868,7 +37702,11 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -36903,7 +37741,11 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -36938,7 +37780,11 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -36973,7 +37819,11 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -37008,7 +37858,11 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -37043,7 +37897,11 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -37078,7 +37936,11 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -37113,7 +37975,11 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -37148,7 +38014,11 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -37183,7 +38053,11 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -37218,7 +38092,11 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -37253,7 +38131,11 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -37288,7 +38170,11 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -37323,7 +38209,11 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -37358,7 +38248,11 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -37393,7 +38287,11 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -37428,7 +38326,11 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -37463,7 +38365,11 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -37498,7 +38404,11 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -37533,7 +38443,11 @@
       </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
-      <c r="L1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -37568,7 +38482,11 @@
       </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -37603,7 +38521,11 @@
       </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -37638,7 +38560,11 @@
       </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -37673,7 +38599,11 @@
       </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -37708,7 +38638,11 @@
       </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -37743,7 +38677,11 @@
       </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -37778,7 +38716,11 @@
       </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -37813,7 +38755,11 @@
       </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -37848,7 +38794,11 @@
       </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -37883,7 +38833,11 @@
       </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -37918,7 +38872,11 @@
       </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -37953,7 +38911,11 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -37988,7 +38950,11 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -38023,7 +38989,11 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -38058,7 +39028,11 @@
       </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -38093,7 +39067,11 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -38128,7 +39106,11 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -38163,7 +39145,11 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -38198,7 +39184,11 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -38233,7 +39223,11 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -38268,7 +39262,11 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -38303,7 +39301,11 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -38338,7 +39340,11 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -38373,7 +39379,11 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -38408,7 +39418,11 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -38443,7 +39457,11 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -38478,7 +39496,11 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -38513,7 +39535,11 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -38548,7 +39574,11 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -38583,7 +39613,11 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -38618,7 +39652,11 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -38653,7 +39691,11 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -38688,7 +39730,11 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -38723,7 +39769,11 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -38758,7 +39808,11 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -38793,7 +39847,11 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -38828,7 +39886,11 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -38863,7 +39925,11 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -38898,7 +39964,11 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -38933,7 +40003,11 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -38968,7 +40042,11 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -39003,7 +40081,11 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -39038,7 +40120,11 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -39073,7 +40159,11 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -39108,7 +40198,11 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -39143,7 +40237,11 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -39178,7 +40276,11 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -39213,7 +40315,11 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -39248,7 +40354,11 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -39283,7 +40393,11 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -39318,7 +40432,11 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest BCH.xlsx
+++ b/BackTest/2020-01-12 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3190,212 +3190,196 @@
         <v>1922.31265039</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>292200</v>
+      </c>
+      <c r="C86" t="n">
+        <v>292200</v>
+      </c>
+      <c r="D86" t="n">
+        <v>292200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>292200</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5417999999999999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1922.85445039</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>291800</v>
+      </c>
+      <c r="C87" t="n">
+        <v>291600</v>
+      </c>
+      <c r="D87" t="n">
+        <v>291800</v>
+      </c>
+      <c r="E87" t="n">
+        <v>291600</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14.9908</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1907.86365039</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>291800</v>
+      </c>
+      <c r="C88" t="n">
+        <v>291800</v>
+      </c>
+      <c r="D88" t="n">
+        <v>291800</v>
+      </c>
+      <c r="E88" t="n">
+        <v>291800</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.2347</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1910.09835039</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>291600</v>
+      </c>
+      <c r="J88" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>291800</v>
+      </c>
+      <c r="C89" t="n">
+        <v>292000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>292000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>291800</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.4057</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1911.50405039</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>291800</v>
+      </c>
+      <c r="J89" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>292000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>291600</v>
+      </c>
+      <c r="D90" t="n">
+        <v>292000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>291600</v>
+      </c>
+      <c r="F90" t="n">
         <v>2</v>
       </c>
-      <c r="I85" t="n">
-        <v>291500</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="G90" t="n">
+        <v>1909.50405039</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>292000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>292200</v>
-      </c>
-      <c r="C86" t="n">
-        <v>292200</v>
-      </c>
-      <c r="D86" t="n">
-        <v>292200</v>
-      </c>
-      <c r="E86" t="n">
-        <v>292200</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.5417999999999999</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1922.85445039</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>292000</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>291800</v>
-      </c>
-      <c r="C87" t="n">
-        <v>291600</v>
-      </c>
-      <c r="D87" t="n">
-        <v>291800</v>
-      </c>
-      <c r="E87" t="n">
-        <v>291600</v>
-      </c>
-      <c r="F87" t="n">
-        <v>14.9908</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1907.86365039</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>292200</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>291800</v>
-      </c>
-      <c r="C88" t="n">
-        <v>291800</v>
-      </c>
-      <c r="D88" t="n">
-        <v>291800</v>
-      </c>
-      <c r="E88" t="n">
-        <v>291800</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.2347</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1910.09835039</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>291600</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>291800</v>
-      </c>
-      <c r="C89" t="n">
-        <v>292000</v>
-      </c>
-      <c r="D89" t="n">
-        <v>292000</v>
-      </c>
-      <c r="E89" t="n">
-        <v>291800</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.4057</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1911.50405039</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>291800</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>292000</v>
-      </c>
-      <c r="C90" t="n">
-        <v>291600</v>
-      </c>
-      <c r="D90" t="n">
-        <v>292000</v>
-      </c>
-      <c r="E90" t="n">
-        <v>291600</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1909.50405039</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>292000</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3424,12 +3408,14 @@
         <v>1909.50405039</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>291600</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>291600</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,12 +3449,14 @@
         <v>1986.31785039</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>291600</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>291600</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,12 +3490,14 @@
         <v>2019.20975039</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>292300</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>291600</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,12 +3531,14 @@
         <v>2055.11805093</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>292400</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>291600</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,12 +3572,14 @@
         <v>2049.35265093</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>292500</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>291600</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,10 +3613,14 @@
         <v>2025.28535093</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>292300</v>
+      </c>
+      <c r="J96" t="n">
+        <v>291600</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,12 +3654,14 @@
         <v>2029.04935093</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>292000</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>291600</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,12 +3695,14 @@
         <v>1951.09745093</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>292100</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>291600</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,12 +3736,14 @@
         <v>1951.09745093</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>291700</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>291600</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,12 +3777,14 @@
         <v>1954.40065093</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>291700</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>291600</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,12 +3818,14 @@
         <v>1943.08525093</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>292000</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>291600</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,12 +3859,14 @@
         <v>2011.88855093</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>291200</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>291600</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,12 +3900,14 @@
         <v>2014.58605093</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>291500</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>291600</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,12 +3941,14 @@
         <v>2012.47325093</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>291800</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>291600</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,12 +3982,14 @@
         <v>2005.36095093</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>291600</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>291600</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,12 +4023,14 @@
         <v>2005.86095093</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>291400</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>291600</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,12 +4064,14 @@
         <v>2005.99105093</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>291600</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>291600</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,12 +4105,14 @@
         <v>2009.70245093</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>291800</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>291600</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,12 +4146,14 @@
         <v>2008.73325093</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>292700</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>291600</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,12 +4187,14 @@
         <v>1963.00615093</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>292400</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>291600</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,12 +4228,14 @@
         <v>1967.77315093</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>291800</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>291600</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,12 +4269,14 @@
         <v>1962.56825093</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>291900</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>291600</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,12 +4310,14 @@
         <v>1960.33975093</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>291700</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>291600</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,12 +4351,14 @@
         <v>1961.83975093</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>291600</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>291600</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,12 +4392,14 @@
         <v>2113.19145093</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>292000</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>291600</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,12 +4433,14 @@
         <v>2113.70185093</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>292500</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>291600</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,12 +4474,14 @@
         <v>2113.94565093</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>293400</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>291600</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,12 +4515,14 @@
         <v>2120.31235093</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>293600</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>291600</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,12 +4556,14 @@
         <v>2151.70595093</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>294000</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>291600</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,12 +4597,14 @@
         <v>2185.42915093</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>295600</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>291600</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,12 +4638,14 @@
         <v>2185.44915093</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>295700</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>291600</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,12 +4679,12 @@
         <v>2155.58925093</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>296300</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>291600</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,7 +4721,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>291600</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +4760,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>291600</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,7 +4799,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>291600</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>291600</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +4877,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>291600</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,7 +4916,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>291600</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,7 +4955,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>291600</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +4994,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>291600</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +5033,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>291600</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +5072,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>291600</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>291600</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,7 +5150,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>291600</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,7 +5189,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>291600</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5228,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>291600</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5267,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>291600</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,7 +5306,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>291600</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5345,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>291600</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,7 +5384,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>291600</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5339,7 +5423,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>291600</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,7 +5462,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>291600</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,7 +5501,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>291600</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,7 +5540,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>291600</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,7 +5579,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>291600</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +5618,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>291600</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,7 +5657,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>291600</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,7 +5696,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>291600</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,7 +5735,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>291600</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,12 +5771,12 @@
         <v>2022.3116574</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>292300</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>291600</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,12 +5810,12 @@
         <v>1976.2552574</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>292400</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>291600</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,12 +5849,12 @@
         <v>1928.6536574</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>292000</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>291600</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5786,12 +5888,12 @@
         <v>2045.9395574</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>291800</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>291600</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,7 +5930,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>291600</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5862,12 +5966,12 @@
         <v>2074.834857400001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>293600</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>291600</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,12 +6005,12 @@
         <v>2074.834857400001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>291600</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5940,12 +6044,12 @@
         <v>2068.4640574</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>291600</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5979,12 +6083,12 @@
         <v>2070.8136574</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>292700</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>291600</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,12 +6122,12 @@
         <v>2067.8866574</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>293300</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>291600</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6057,12 +6161,12 @@
         <v>2126.2072574</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>292600</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>291600</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6096,12 +6200,12 @@
         <v>2078.8919574</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>291600</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6135,12 +6239,12 @@
         <v>2079.7984574</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>292600</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>291600</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,7 +6281,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>291600</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6214,7 +6320,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>291600</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,7 +6359,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>291600</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,7 +6398,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>291600</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,7 +6437,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>291600</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,12 +6473,12 @@
         <v>1977.0157574</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>291900</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>291600</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,12 +6512,12 @@
         <v>1975.8727574</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>291800</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>291600</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,12 +6551,14 @@
         <v>1991.1590574</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>291300</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>291600</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,12 +6592,14 @@
         <v>1991.1590574</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>292600</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>291600</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,12 +6633,14 @@
         <v>1962.2890574</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>292600</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>291600</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6554,12 +6674,14 @@
         <v>1965.7890574</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>291800</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>291600</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,12 +6715,14 @@
         <v>1969.7890574</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>291900</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>291600</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,12 +6756,14 @@
         <v>1970.0390574</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>292200</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>291600</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,12 +6797,14 @@
         <v>1956.1069574</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>292600</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>291600</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,12 +6838,14 @@
         <v>1967.8439574</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>292100</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>291600</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,12 +6879,14 @@
         <v>1967.8340574</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>292600</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>291600</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,12 +6920,14 @@
         <v>1967.8340574</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>292400</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>291600</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,12 +6961,14 @@
         <v>1967.8340574</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>292400</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>291600</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6866,12 +7002,12 @@
         <v>2017.9547574</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>292400</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>291600</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,12 +7041,14 @@
         <v>2017.9547574</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>293300</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>291600</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,12 +7082,12 @@
         <v>2035.3204574</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>293300</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>291600</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,7 +7124,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>291600</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,12 +7160,12 @@
         <v>2062.6827574</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>294300</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>291600</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,7 +7202,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>291600</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,7 +7241,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>291600</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,7 +7280,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>291600</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,7 +7319,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>291600</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,7 +7358,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>291600</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,7 +7397,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>291600</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,7 +7436,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>291600</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7321,7 +7475,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>291600</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,7 +7514,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>291600</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,7 +7553,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>291600</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,7 +7592,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>291600</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,7 +7631,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>291600</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7506,7 +7670,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>291600</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,7 +7709,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>291600</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,7 +7748,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>291600</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,7 +7787,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>291600</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,7 +7826,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>291600</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,7 +7865,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>291600</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,7 +7904,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>291600</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,7 +7943,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>291600</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,7 +7982,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>291600</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,12 +8018,12 @@
         <v>1999.2840574</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>294400</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>291600</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,7 +8060,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>291600</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,7 +8099,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>291600</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,7 +8138,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>291600</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,7 +8177,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>291600</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8026,7 +8216,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>291600</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,7 +8255,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>291600</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,7 +8294,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>291600</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8137,7 +8333,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>291600</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,7 +8372,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>291600</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,7 +8411,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>291600</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>291600</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8285,7 +8489,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>291600</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,7 +8528,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>291600</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8356,12 +8564,12 @@
         <v>1964.5091574</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>291600</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8395,12 +8603,12 @@
         <v>1973.1138574</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>292000</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>291600</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8434,12 +8642,12 @@
         <v>1982.08755058</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>292200</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>291600</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,12 +8681,12 @@
         <v>1980.24235058</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>293300</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>291600</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8512,12 +8720,12 @@
         <v>1932.25395058</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>292300</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>291600</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,12 +8759,12 @@
         <v>1932.36125058</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>291900</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>291600</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,12 +8798,12 @@
         <v>1931.86125058</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>292300</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>291600</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,12 +8837,12 @@
         <v>1945.60635058</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>292200</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>291600</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,12 +8876,12 @@
         <v>1947.10635058</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>292500</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>291600</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,12 +8915,12 @@
         <v>1945.95705058</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>293200</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>291600</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,12 +8954,12 @@
         <v>1968.40605058</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>291600</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,12 +8993,12 @@
         <v>1965.47415058</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>293300</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>291600</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,12 +9032,12 @@
         <v>1954.20985058</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>292400</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>291600</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,12 +9071,12 @@
         <v>1953.70985058</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>292100</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>291600</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,12 +9110,12 @@
         <v>1954.33685058</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>291900</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>291600</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,12 +9149,12 @@
         <v>1979.24265058</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>292100</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>291600</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,12 +9188,12 @@
         <v>1969.56635058</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>292200</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>291600</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,12 +9227,14 @@
         <v>1964.03045058</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>291800</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>291600</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,12 +9268,12 @@
         <v>1975.74475058</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>291600</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>291600</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9097,12 +9307,14 @@
         <v>1976.24475058</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>291800</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>291600</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9136,12 +9348,14 @@
         <v>1975.81445058</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>292400</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>291600</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,12 +9389,14 @@
         <v>1975.81445058</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>291900</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>291600</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9214,12 +9430,12 @@
         <v>1989.41155058</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>291900</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>291600</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9253,12 +9469,14 @@
         <v>1988.73855058</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>292000</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>291600</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9292,12 +9510,14 @@
         <v>1988.49635058</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>291900</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>291600</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9331,12 +9551,14 @@
         <v>1988.49635058</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>291600</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>291600</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9370,12 +9592,14 @@
         <v>1988.87975058</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>291600</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>291600</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9409,12 +9633,14 @@
         <v>1988.87975058</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>292000</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>291600</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,12 +9674,14 @@
         <v>2046.43005058</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>292000</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>291600</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9487,12 +9715,14 @@
         <v>1986.67535058</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>292900</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>291600</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,12 +9756,14 @@
         <v>1981.08145058</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>292800</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>291600</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,12 +9797,14 @@
         <v>1981.08145058</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>292500</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>291600</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9604,12 +9838,14 @@
         <v>1981.08145058</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>292500</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>291600</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9643,12 +9879,14 @@
         <v>1981.08145058</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>292500</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>291600</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,12 +9920,14 @@
         <v>1980.22785058</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>292500</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>291600</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9721,12 +9961,14 @@
         <v>1982.11615058</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>292300</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>291600</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9760,12 +10002,14 @@
         <v>1982.11615058</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>293000</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>291600</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9799,12 +10043,14 @@
         <v>1983.25995058</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>293000</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>291600</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,12 +10084,14 @@
         <v>1981.91005058</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>293500</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>291600</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9877,12 +10125,14 @@
         <v>1982.75095058</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>292900</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>291600</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,12 +10166,14 @@
         <v>1981.90095058</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>293100</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>291600</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,12 +10207,14 @@
         <v>1984.28025058</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>292900</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>291600</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,12 +10248,14 @@
         <v>1984.75585058</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>293400</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>291600</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10033,12 +10289,12 @@
         <v>1984.75585058</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>293800</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>291600</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10072,12 +10328,12 @@
         <v>1984.75585058</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>293800</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>291600</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10111,12 +10367,12 @@
         <v>1984.10595058</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>293800</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>291600</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10150,12 +10406,12 @@
         <v>1985.73995058</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>292100</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>291600</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10189,12 +10445,12 @@
         <v>1985.73995058</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>293100</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>291600</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10231,7 +10487,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>291600</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10265,12 +10523,12 @@
         <v>2048.03195058</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>291600</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,12 +10562,14 @@
         <v>2048.25985058</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>293300</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>291600</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10343,12 +10603,12 @@
         <v>2032.75985058</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>291600</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,12 +10642,12 @@
         <v>2012.59165058</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>293200</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>291600</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10421,12 +10681,12 @@
         <v>2012.59165058</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>293100</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>291600</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10460,12 +10720,12 @@
         <v>2011.51925058</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>293100</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>291600</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10499,12 +10759,12 @@
         <v>2001.12935058</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>292900</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>291600</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10538,12 +10798,12 @@
         <v>2001.12935058</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>292700</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>291600</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10577,12 +10837,12 @@
         <v>2001.45325058</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>292700</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>291600</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10616,12 +10876,12 @@
         <v>2043.31955058</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>293100</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>291600</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10655,12 +10915,12 @@
         <v>2000.50045058</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>293600</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>291600</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10694,12 +10954,12 @@
         <v>2045.04845058</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>291600</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,12 +10993,12 @@
         <v>2044.27255058</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>293900</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>291600</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,12 +11032,12 @@
         <v>2049.72955058</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>293300</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>291600</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10811,12 +11071,12 @@
         <v>2046.52535058</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>291600</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,12 +11110,12 @@
         <v>2039.26465058</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>293100</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>291600</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10889,12 +11149,12 @@
         <v>1960.18875058</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>291600</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10928,12 +11188,12 @@
         <v>1722.52965058</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>292900</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>291600</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,12 +11227,12 @@
         <v>1722.52965058</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>292300</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>291600</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,12 +11266,12 @@
         <v>1725.10185058</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>292300</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>291600</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11045,12 +11305,12 @@
         <v>1718.64645058</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>292700</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>291600</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11084,12 +11344,12 @@
         <v>1722.79805058</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>292500</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>291600</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,12 +11383,12 @@
         <v>1702.93055058</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>293200</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>291600</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11162,12 +11422,12 @@
         <v>1702.93055058</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>291600</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,12 +11461,14 @@
         <v>1737.03005058</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>293000</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>291600</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,12 +11502,14 @@
         <v>1737.03005058</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>293400</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>291600</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11279,12 +11543,14 @@
         <v>1737.03005058</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>293400</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>291600</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11318,12 +11584,12 @@
         <v>1737.03005058</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>291600</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11357,12 +11623,12 @@
         <v>1737.03005058</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>291600</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11396,12 +11662,12 @@
         <v>1769.71455058</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>291600</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11435,12 +11701,12 @@
         <v>1780.43505058</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>293700</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>291600</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11474,12 +11740,12 @@
         <v>1789.63135058</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>294000</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>291600</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,12 +11779,12 @@
         <v>1791.10305058</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>294500</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>291600</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11552,12 +11818,12 @@
         <v>1793.25255058</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>295100</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>291600</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11591,12 +11857,12 @@
         <v>1794.62425058</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>295500</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>291600</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11630,12 +11896,12 @@
         <v>1898.67705058</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>295600</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>291600</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,7 +11938,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>291600</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,7 +11977,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>291600</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,7 +12016,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>291600</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11783,7 +12055,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>291600</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,7 +12094,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>291600</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,7 +12133,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>291600</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11894,7 +12172,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>291600</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11931,7 +12211,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>291600</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,7 +12250,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>291600</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,7 +12289,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>291600</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,7 +12328,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>291600</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,7 +12367,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>291600</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,7 +12406,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>291600</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,7 +12445,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>291600</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12190,7 +12484,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>291600</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12227,7 +12523,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>291600</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,7 +12562,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>291600</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,7 +12601,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>291600</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,7 +12640,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>291600</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,7 +12679,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>291600</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,7 +12718,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>291600</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,7 +12757,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>291600</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12486,7 +12796,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>291600</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12523,7 +12835,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>291600</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,7 +12874,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>291600</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12597,7 +12913,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>291600</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,7 +12952,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>291600</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,7 +12991,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>291600</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12708,7 +13030,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>291600</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,7 +13069,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>291600</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,7 +13108,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>291600</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12819,7 +13147,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>291600</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,7 +13186,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>291600</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12893,7 +13225,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>291600</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12930,7 +13264,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>291600</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,7 +13303,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>291600</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,7 +13342,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>291600</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13041,7 +13381,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>291600</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13078,7 +13420,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>291600</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13115,7 +13459,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>291600</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13152,7 +13498,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>291600</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,7 +13537,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>291600</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13226,7 +13576,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>291600</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,7 +13615,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>291600</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,7 +13654,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>291600</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13337,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>291600</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,7 +13732,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>291600</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13411,7 +13771,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>291600</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13448,7 +13810,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>291600</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13485,7 +13849,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>291600</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,7 +13888,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>291600</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,7 +13927,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>291600</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13596,7 +13966,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>291600</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,7 +14005,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>291600</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,7 +14044,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>291600</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,7 +14083,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>291600</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,7 +14122,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>291600</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13781,7 +14161,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>291600</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,7 +14200,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>291600</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,7 +14239,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>291600</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,7 +14278,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>291600</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,7 +14317,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>291600</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,7 +14356,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>291600</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14003,7 +14395,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>291600</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,10 +14431,12 @@
         <v>3141.559973510001</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>291600</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14074,10 +14470,12 @@
         <v>3041.748373510001</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>291600</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14111,10 +14509,12 @@
         <v>3132.326873510001</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>291600</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,7 +14551,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>291600</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,10 +14587,12 @@
         <v>3160.106573510001</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>291600</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14222,10 +14626,12 @@
         <v>3182.624472140001</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>291600</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14259,10 +14665,12 @@
         <v>3135.692272140001</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>291600</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14296,10 +14704,12 @@
         <v>3101.237272140001</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>291600</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14333,10 +14743,12 @@
         <v>3115.701072140001</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>291600</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,10 +14782,12 @@
         <v>3151.549972140001</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>291600</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14407,10 +14821,12 @@
         <v>3129.341776000001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>291600</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14444,10 +14860,12 @@
         <v>3008.505176000001</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>291600</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14481,10 +14899,12 @@
         <v>2890.401376000001</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>291600</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14518,10 +14938,12 @@
         <v>2836.420976000001</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>291600</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14555,10 +14977,12 @@
         <v>2736.936776000001</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>291600</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14595,7 +15019,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>291600</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14629,10 +15055,12 @@
         <v>2588.800576000001</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>291600</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14666,10 +15094,12 @@
         <v>2669.023559860002</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>291600</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14703,10 +15133,12 @@
         <v>2740.363500650002</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>291600</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,10 +15172,12 @@
         <v>2807.060374410002</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>291600</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,10 +15211,12 @@
         <v>2763.984429770001</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>291600</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,10 +15250,12 @@
         <v>2786.471685130001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>291600</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14854,7 +15292,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>291600</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14891,7 +15331,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>291600</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14928,7 +15370,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>291600</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14965,7 +15409,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>291600</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15002,7 +15448,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>291600</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15039,7 +15487,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>291600</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15076,7 +15526,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>291600</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,10 +15562,12 @@
         <v>2911.145184000001</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>291600</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,7 +15604,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>291600</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15187,7 +15643,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>291600</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15221,10 +15679,12 @@
         <v>3080.972837770001</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>291600</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15258,10 +15718,12 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>291600</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,10 +15757,12 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>291600</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15332,10 +15796,12 @@
         <v>3019.948432700001</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>291600</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15372,7 +15838,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>291600</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15409,7 +15877,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>291600</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15446,7 +15916,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>291600</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,10 +15952,12 @@
         <v>2964.433520230001</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>291600</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15517,10 +15991,12 @@
         <v>2919.961120230001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>291600</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15557,7 +16033,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>291600</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,7 +16072,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>291600</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15631,7 +16111,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>291600</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15668,7 +16150,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>291600</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15705,7 +16189,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>291600</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15742,7 +16228,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>291600</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15779,7 +16267,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>291600</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15816,7 +16306,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>291600</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15853,7 +16345,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>291600</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,7 +16384,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>291600</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15927,7 +16423,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>291600</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,7 +16462,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>291600</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16001,7 +16501,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>291600</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16038,7 +16540,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>291600</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,7 +16579,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>291600</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16112,7 +16618,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>291600</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16149,7 +16657,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>291600</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16186,7 +16696,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>291600</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16223,7 +16735,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>291600</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,7 +16774,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>291600</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16297,7 +16813,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>291600</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16334,7 +16852,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>291600</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16371,7 +16891,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>291600</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,7 +16930,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>291600</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16445,7 +16969,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>291600</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16482,7 +17008,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>291600</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16519,7 +17047,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>291600</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16556,7 +17086,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>291600</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16593,7 +17125,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>291600</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16630,7 +17164,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>291600</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16667,7 +17203,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>291600</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16704,7 +17242,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>291600</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16741,7 +17281,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>291600</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16778,7 +17320,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>291600</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16815,7 +17359,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>291600</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,7 +17398,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>291600</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16889,7 +17437,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>291600</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,7 +17476,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>291600</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16963,7 +17515,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>291600</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17000,7 +17554,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>291600</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17037,7 +17593,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>291600</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17074,7 +17632,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>291600</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17111,7 +17671,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>291600</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17148,7 +17710,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>291600</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17185,7 +17749,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>291600</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17222,7 +17788,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>291600</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17259,7 +17827,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>291600</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17296,7 +17866,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>291600</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17333,7 +17905,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>291600</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17367,116 +17941,140 @@
         <v>3890.537609580002</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>291600</v>
+      </c>
       <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>315100</v>
+      </c>
+      <c r="C461" t="n">
+        <v>314400</v>
+      </c>
+      <c r="D461" t="n">
+        <v>315200</v>
+      </c>
+      <c r="E461" t="n">
+        <v>314400</v>
+      </c>
+      <c r="F461" t="n">
+        <v>127.0919</v>
+      </c>
+      <c r="G461" t="n">
+        <v>3763.445709580002</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>314600</v>
+      </c>
+      <c r="C462" t="n">
+        <v>315800</v>
+      </c>
+      <c r="D462" t="n">
+        <v>315800</v>
+      </c>
+      <c r="E462" t="n">
+        <v>314500</v>
+      </c>
+      <c r="F462" t="n">
+        <v>47.4323</v>
+      </c>
+      <c r="G462" t="n">
+        <v>3810.878009580002</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>315700</v>
+      </c>
+      <c r="C463" t="n">
+        <v>314800</v>
+      </c>
+      <c r="D463" t="n">
+        <v>315900</v>
+      </c>
+      <c r="E463" t="n">
+        <v>313700</v>
+      </c>
+      <c r="F463" t="n">
+        <v>63.4324</v>
+      </c>
+      <c r="G463" t="n">
+        <v>3747.445609580002</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>291600</v>
+      </c>
+      <c r="K463" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L460" t="inlineStr"/>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>315100</v>
-      </c>
-      <c r="C461" t="n">
-        <v>314400</v>
-      </c>
-      <c r="D461" t="n">
-        <v>315200</v>
-      </c>
-      <c r="E461" t="n">
-        <v>314400</v>
-      </c>
-      <c r="F461" t="n">
-        <v>127.0919</v>
-      </c>
-      <c r="G461" t="n">
-        <v>3763.445709580002</v>
-      </c>
-      <c r="H461" t="n">
-        <v>3</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>314600</v>
-      </c>
-      <c r="C462" t="n">
-        <v>315800</v>
-      </c>
-      <c r="D462" t="n">
-        <v>315800</v>
-      </c>
-      <c r="E462" t="n">
-        <v>314500</v>
-      </c>
-      <c r="F462" t="n">
-        <v>47.4323</v>
-      </c>
-      <c r="G462" t="n">
-        <v>3810.878009580002</v>
-      </c>
-      <c r="H462" t="n">
-        <v>3</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>315700</v>
-      </c>
-      <c r="C463" t="n">
-        <v>314800</v>
-      </c>
-      <c r="D463" t="n">
-        <v>315900</v>
-      </c>
-      <c r="E463" t="n">
-        <v>313700</v>
-      </c>
-      <c r="F463" t="n">
-        <v>63.4324</v>
-      </c>
-      <c r="G463" t="n">
-        <v>3747.445609580002</v>
-      </c>
-      <c r="H463" t="n">
-        <v>3</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
+        <v>1.074561042524006</v>
+      </c>
+      <c r="M463" t="n">
+        <v>1.048109965635739</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -17501,7 +18099,7 @@
         <v>3709.046112760002</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17534,7 +18132,7 @@
         <v>3590.134572180002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17567,7 +18165,7 @@
         <v>3494.671272180002</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17600,7 +18198,7 @@
         <v>3546.734972180002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17633,7 +18231,7 @@
         <v>3535.500472180002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17666,7 +18264,7 @@
         <v>3564.230272180002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17699,7 +18297,7 @@
         <v>3540.774972180002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17732,7 +18330,7 @@
         <v>3512.166172180002</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17765,7 +18363,7 @@
         <v>3532.007764510002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17798,7 +18396,7 @@
         <v>3495.437652500003</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17831,7 +18429,7 @@
         <v>3389.783052500003</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17864,7 +18462,7 @@
         <v>3391.683052500003</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17897,7 +18495,7 @@
         <v>3417.545452500003</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17930,7 +18528,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17963,7 +18561,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17996,7 +18594,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18029,7 +18627,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18062,7 +18660,7 @@
         <v>3404.274593530003</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18095,7 +18693,7 @@
         <v>3406.697693530003</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18128,7 +18726,7 @@
         <v>3390.557793530003</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18161,7 +18759,7 @@
         <v>3371.159193530003</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18194,7 +18792,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18227,7 +18825,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18260,7 +18858,7 @@
         <v>3350.277693530003</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18359,7 +18957,7 @@
         <v>3412.087693530003</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18392,7 +18990,7 @@
         <v>3332.602493530003</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18491,7 +19089,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18524,7 +19122,7 @@
         <v>3479.262793530003</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18623,7 +19221,7 @@
         <v>3416.087893530003</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18656,7 +19254,7 @@
         <v>3439.771393530003</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18689,7 +19287,7 @@
         <v>3439.771393530003</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18722,7 +19320,7 @@
         <v>3392.667293530003</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18755,7 +19353,7 @@
         <v>3249.429693530003</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18788,7 +19386,7 @@
         <v>3234.193593530003</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18821,7 +19419,7 @@
         <v>3165.489793530003</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18854,7 +19452,7 @@
         <v>3032.467893530003</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18887,7 +19485,7 @@
         <v>3122.612293530003</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18920,7 +19518,7 @@
         <v>3072.108893530003</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18953,7 +19551,7 @@
         <v>3052.010493530003</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18986,7 +19584,7 @@
         <v>3087.746493530003</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19019,7 +19617,7 @@
         <v>3087.746493530003</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19052,7 +19650,7 @@
         <v>3054.745293530003</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19085,7 +19683,7 @@
         <v>3383.713193530003</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19118,7 +19716,7 @@
         <v>3384.792293530003</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19151,7 +19749,7 @@
         <v>3425.948593530003</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19184,7 +19782,7 @@
         <v>3501.699993530003</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19217,7 +19815,7 @@
         <v>3480.186593530003</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19250,7 +19848,7 @@
         <v>3480.186593530003</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19283,7 +19881,7 @@
         <v>3483.069193530003</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19316,7 +19914,7 @@
         <v>3449.926793530003</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19349,7 +19947,7 @@
         <v>3463.449993530003</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19382,7 +19980,7 @@
         <v>3376.191893530003</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19448,7 +20046,7 @@
         <v>3304.411452660003</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19481,7 +20079,7 @@
         <v>3302.037652660003</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -22583,7 +23181,7 @@
         <v>3330.189878220002</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -26774,7 +27372,7 @@
         <v>3697.948142190001</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27038,7 +27636,7 @@
         <v>3676.825442190002</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27137,7 +27735,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27170,7 +27768,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27203,7 +27801,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27236,7 +27834,7 @@
         <v>3842.364042190002</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27269,7 +27867,7 @@
         <v>3906.781042190002</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27302,7 +27900,7 @@
         <v>3933.529542190002</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27335,7 +27933,7 @@
         <v>3931.592442190002</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27368,7 +27966,7 @@
         <v>3931.592442190002</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27401,7 +27999,7 @@
         <v>3931.575742190002</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27434,7 +28032,7 @@
         <v>3990.240742190002</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27467,7 +28065,7 @@
         <v>4000.240742190002</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27500,7 +28098,7 @@
         <v>3999.240742190002</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27533,7 +28131,7 @@
         <v>3991.311242190001</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27566,7 +28164,7 @@
         <v>3987.954043500001</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28160,7 +28758,7 @@
         <v>4075.316486500001</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28193,7 +28791,7 @@
         <v>4091.632386500001</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28226,7 +28824,7 @@
         <v>4057.223686500001</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28259,7 +28857,7 @@
         <v>4085.966886500001</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28292,7 +28890,7 @@
         <v>4085.666886500001</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28325,7 +28923,7 @@
         <v>4087.113586790001</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28358,7 +28956,7 @@
         <v>4089.161869710001</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28391,7 +28989,7 @@
         <v>4086.933968740001</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28424,7 +29022,7 @@
         <v>4086.933968740001</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28457,7 +29055,7 @@
         <v>4088.564268740001</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28523,7 +29121,7 @@
         <v>4086.086268740001</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28589,7 +29187,7 @@
         <v>4075.857068740001</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30701,7 +31299,7 @@
         <v>3960.04036564</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31097,7 +31695,7 @@
         <v>3986.929465640001</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31130,7 +31728,7 @@
         <v>3993.768065640001</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31229,7 +31827,7 @@
         <v>3992.092865640001</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31262,7 +31860,7 @@
         <v>3992.092865640001</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31295,7 +31893,7 @@
         <v>3999.14966564</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31328,7 +31926,7 @@
         <v>3998.28076564</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31361,7 +31959,7 @@
         <v>4013.40026564</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31394,7 +31992,7 @@
         <v>4007.92226564</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31427,7 +32025,7 @@
         <v>4023.96546564</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31460,7 +32058,7 @@
         <v>4087.91026564</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31493,7 +32091,7 @@
         <v>4091.040065640001</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31526,7 +32124,7 @@
         <v>4131.763065640001</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31559,7 +32157,7 @@
         <v>4104.278065640001</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31592,7 +32190,7 @@
         <v>4108.897725180001</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31625,7 +32223,7 @@
         <v>4083.750425180001</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31658,7 +32256,7 @@
         <v>4053.06602518</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31691,7 +32289,7 @@
         <v>4047.871625180001</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31724,7 +32322,7 @@
         <v>4047.871625180001</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31757,7 +32355,7 @@
         <v>4047.871625180001</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31790,7 +32388,7 @@
         <v>4047.871625180001</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31823,7 +32421,7 @@
         <v>4046.757725180001</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31856,7 +32454,7 @@
         <v>4046.957925180001</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31889,7 +32487,7 @@
         <v>4048.580925180001</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31922,7 +32520,7 @@
         <v>4064.845847090001</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31955,7 +32553,7 @@
         <v>4064.845847090001</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31988,7 +32586,7 @@
         <v>4044.845847090001</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32021,7 +32619,7 @@
         <v>4083.920047090001</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32054,7 +32652,7 @@
         <v>4119.020187550001</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32087,7 +32685,7 @@
         <v>4179.327887550001</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32120,7 +32718,7 @@
         <v>4159.389386680001</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32153,7 +32751,7 @@
         <v>4169.807486680001</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32186,7 +32784,7 @@
         <v>4169.807486680001</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32219,7 +32817,7 @@
         <v>4166.88958668</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32252,7 +32850,7 @@
         <v>4171.61958668</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32285,7 +32883,7 @@
         <v>4120.10238668</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32318,7 +32916,7 @@
         <v>4044.00968668</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32351,7 +32949,7 @@
         <v>4057.26148668</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32384,7 +32982,7 @@
         <v>4057.26148668</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32417,7 +33015,7 @@
         <v>4053.344386679999</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32846,7 +33444,7 @@
         <v>3976.667141489999</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32912,7 +33510,7 @@
         <v>3976.667141489999</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32945,7 +33543,7 @@
         <v>3954.753841489999</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32978,7 +33576,7 @@
         <v>3972.496840049999</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33011,7 +33609,7 @@
         <v>3914.221340049999</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33044,7 +33642,7 @@
         <v>3887.577740049999</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33077,7 +33675,7 @@
         <v>3884.924340049999</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33539,7 +34137,7 @@
         <v>3528.414679869998</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33572,7 +34170,7 @@
         <v>3528.414679869998</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33605,7 +34203,7 @@
         <v>3512.041279869998</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33737,7 +34335,7 @@
         <v>3032.705145669998</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33770,7 +34368,7 @@
         <v>3116.534945669998</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33803,7 +34401,7 @@
         <v>3125.455445669998</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -39787,6 +40385,6 @@
       <c r="M1139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BCH.xlsx
+++ b/BackTest/2020-01-12 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2431,11 +2431,17 @@
         <v>1746.21575039</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>294600</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2470,17 @@
         <v>1768.94945039</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>293500</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2509,17 @@
         <v>1763.46055039</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>294100</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2548,17 @@
         <v>1800.40215039</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>293200</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2587,17 @@
         <v>1796.34255039</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>293900</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2630,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2663,17 @@
         <v>1802.83675039</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>293900</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2702,17 @@
         <v>1811.03785039</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>293800</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2745,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2778,17 @@
         <v>1810.74555039</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>293400</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2817,17 @@
         <v>1809.44445039</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>293800</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2856,17 @@
         <v>1809.44445039</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>293300</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2895,17 @@
         <v>1812.92835039</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>293300</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2934,17 @@
         <v>1869.45545039</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>293700</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2977,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3010,17 @@
         <v>1970.00025039</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>294100</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3053,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3090,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3123,17 @@
         <v>1826.13205039</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>292700</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3162,17 @@
         <v>1926.38175039</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>291600</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3201,17 @@
         <v>1849.88735039</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>291900</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3240,17 @@
         <v>1841.07755039</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>291700</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3279,17 @@
         <v>1842.89135039</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>291100</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3318,17 @@
         <v>1922.31265039</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>291500</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3357,17 @@
         <v>1922.85445039</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>292000</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3396,17 @@
         <v>1907.86365039</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>292200</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3294,10 +3440,12 @@
       <c r="I88" t="n">
         <v>291600</v>
       </c>
-      <c r="J88" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3331,12 +3479,10 @@
       <c r="I89" t="n">
         <v>291800</v>
       </c>
-      <c r="J89" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3372,12 +3518,10 @@
       <c r="I90" t="n">
         <v>292000</v>
       </c>
-      <c r="J90" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3413,9 +3557,7 @@
       <c r="I91" t="n">
         <v>291600</v>
       </c>
-      <c r="J91" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,9 +3596,7 @@
       <c r="I92" t="n">
         <v>291600</v>
       </c>
-      <c r="J92" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,9 +3635,7 @@
       <c r="I93" t="n">
         <v>292300</v>
       </c>
-      <c r="J93" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,9 +3674,7 @@
       <c r="I94" t="n">
         <v>292400</v>
       </c>
-      <c r="J94" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,9 +3713,7 @@
       <c r="I95" t="n">
         <v>292500</v>
       </c>
-      <c r="J95" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,9 +3752,7 @@
       <c r="I96" t="n">
         <v>292300</v>
       </c>
-      <c r="J96" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3791,7 @@
       <c r="I97" t="n">
         <v>292000</v>
       </c>
-      <c r="J97" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,9 +3830,7 @@
       <c r="I98" t="n">
         <v>292100</v>
       </c>
-      <c r="J98" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,9 +3869,7 @@
       <c r="I99" t="n">
         <v>291700</v>
       </c>
-      <c r="J99" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,9 +3908,7 @@
       <c r="I100" t="n">
         <v>291700</v>
       </c>
-      <c r="J100" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3947,7 @@
       <c r="I101" t="n">
         <v>292000</v>
       </c>
-      <c r="J101" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,9 +3986,7 @@
       <c r="I102" t="n">
         <v>291200</v>
       </c>
-      <c r="J102" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,9 +4025,7 @@
       <c r="I103" t="n">
         <v>291500</v>
       </c>
-      <c r="J103" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,9 +4064,7 @@
       <c r="I104" t="n">
         <v>291800</v>
       </c>
-      <c r="J104" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,9 +4103,7 @@
       <c r="I105" t="n">
         <v>291600</v>
       </c>
-      <c r="J105" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,9 +4142,7 @@
       <c r="I106" t="n">
         <v>291400</v>
       </c>
-      <c r="J106" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +4181,7 @@
       <c r="I107" t="n">
         <v>291600</v>
       </c>
-      <c r="J107" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,9 +4220,7 @@
       <c r="I108" t="n">
         <v>291800</v>
       </c>
-      <c r="J108" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,9 +4259,7 @@
       <c r="I109" t="n">
         <v>292700</v>
       </c>
-      <c r="J109" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,9 +4298,7 @@
       <c r="I110" t="n">
         <v>292400</v>
       </c>
-      <c r="J110" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,9 +4337,7 @@
       <c r="I111" t="n">
         <v>291800</v>
       </c>
-      <c r="J111" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,9 +4376,7 @@
       <c r="I112" t="n">
         <v>291900</v>
       </c>
-      <c r="J112" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,9 +4415,7 @@
       <c r="I113" t="n">
         <v>291700</v>
       </c>
-      <c r="J113" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,9 +4454,7 @@
       <c r="I114" t="n">
         <v>291600</v>
       </c>
-      <c r="J114" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,9 +4493,7 @@
       <c r="I115" t="n">
         <v>292000</v>
       </c>
-      <c r="J115" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4438,9 +4532,7 @@
       <c r="I116" t="n">
         <v>292500</v>
       </c>
-      <c r="J116" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,9 +4571,7 @@
       <c r="I117" t="n">
         <v>293400</v>
       </c>
-      <c r="J117" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,9 +4610,7 @@
       <c r="I118" t="n">
         <v>293600</v>
       </c>
-      <c r="J118" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,14 +4644,10 @@
         <v>2151.70595093</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>294000</v>
-      </c>
-      <c r="J119" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,14 +4681,10 @@
         <v>2185.42915093</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>295600</v>
-      </c>
-      <c r="J120" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,14 +4718,10 @@
         <v>2185.44915093</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>295700</v>
-      </c>
-      <c r="J121" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,9 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,9 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,9 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,9 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,9 +4906,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,9 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,9 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,9 +5017,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4994,9 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5033,9 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,9 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5111,9 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,9 +5202,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,9 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,9 +5276,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,9 +5313,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,9 +5350,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,9 +5387,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,9 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,9 +5461,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,9 +5498,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,9 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,9 +5572,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,9 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5618,9 +5646,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,9 +5683,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,9 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,9 +5757,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,9 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,9 +5905,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,9 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,9 +5979,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,9 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6047,9 +6053,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,9 +6090,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,9 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6164,9 +6164,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6203,9 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,9 +6238,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6281,9 +6275,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,9 +6312,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,9 +6349,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,9 +6386,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,9 +6423,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,9 +6460,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,9 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,9 +6536,7 @@
       <c r="I170" t="n">
         <v>291300</v>
       </c>
-      <c r="J170" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,9 +6575,7 @@
       <c r="I171" t="n">
         <v>292600</v>
       </c>
-      <c r="J171" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,9 +6614,7 @@
       <c r="I172" t="n">
         <v>292600</v>
       </c>
-      <c r="J172" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6679,9 +6653,7 @@
       <c r="I173" t="n">
         <v>291800</v>
       </c>
-      <c r="J173" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,9 +6692,7 @@
       <c r="I174" t="n">
         <v>291900</v>
       </c>
-      <c r="J174" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6761,9 +6731,7 @@
       <c r="I175" t="n">
         <v>292200</v>
       </c>
-      <c r="J175" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6802,9 +6770,7 @@
       <c r="I176" t="n">
         <v>292600</v>
       </c>
-      <c r="J176" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6843,9 +6809,7 @@
       <c r="I177" t="n">
         <v>292100</v>
       </c>
-      <c r="J177" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6884,9 +6848,7 @@
       <c r="I178" t="n">
         <v>292600</v>
       </c>
-      <c r="J178" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +6887,7 @@
       <c r="I179" t="n">
         <v>292400</v>
       </c>
-      <c r="J179" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,9 +6926,7 @@
       <c r="I180" t="n">
         <v>292400</v>
       </c>
-      <c r="J180" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,12 +6960,12 @@
         <v>2017.9547574</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>292400</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,9 +7004,7 @@
       <c r="I182" t="n">
         <v>293300</v>
       </c>
-      <c r="J182" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,12 +7038,12 @@
         <v>2035.3204574</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>293300</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,12 +7077,12 @@
         <v>2048.4116574</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>293700</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,9 +7119,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,9 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,9 +7193,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,9 +7230,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,9 +7267,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,9 +7304,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,9 +7341,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,9 +7378,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,9 +7415,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,9 +7452,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,9 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,9 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,9 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,9 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,9 +7637,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,9 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,9 +7711,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,9 +7748,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,9 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,9 +7822,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,9 +7859,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,9 +7896,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,9 +7933,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,9 +7970,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,9 +8007,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8138,9 +8044,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8177,9 +8081,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,9 +8118,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,9 +8155,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,9 +8192,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,9 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8372,9 +8266,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8411,9 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,9 +8340,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,9 +8377,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8528,9 +8414,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,9 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8606,9 +8488,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8642,12 +8522,12 @@
         <v>1982.08755058</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>292200</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,9 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8720,12 +8598,12 @@
         <v>1932.25395058</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>292300</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8759,12 +8637,12 @@
         <v>1932.36125058</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>291900</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8798,12 +8676,12 @@
         <v>1931.86125058</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>292300</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8837,12 +8715,12 @@
         <v>1945.60635058</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>292200</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8876,12 +8754,12 @@
         <v>1947.10635058</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>292500</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,9 +8796,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8954,12 +8830,12 @@
         <v>1968.40605058</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>293000</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,12 +8869,12 @@
         <v>1965.47415058</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>293300</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,12 +8908,12 @@
         <v>1954.20985058</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>292400</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9071,12 +8947,12 @@
         <v>1953.70985058</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>292100</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9110,12 +8986,12 @@
         <v>1954.33685058</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>291900</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,12 +9025,12 @@
         <v>1979.24265058</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>292100</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9188,12 +9064,12 @@
         <v>1969.56635058</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>292200</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9232,9 +9108,7 @@
       <c r="I238" t="n">
         <v>291800</v>
       </c>
-      <c r="J238" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,12 +9142,12 @@
         <v>1975.74475058</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
         <v>291600</v>
       </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +9186,7 @@
       <c r="I240" t="n">
         <v>291800</v>
       </c>
-      <c r="J240" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,9 +9225,7 @@
       <c r="I241" t="n">
         <v>292400</v>
       </c>
-      <c r="J241" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9394,9 +9264,7 @@
       <c r="I242" t="n">
         <v>291900</v>
       </c>
-      <c r="J242" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9430,12 +9298,12 @@
         <v>1989.41155058</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>291900</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,9 +9342,7 @@
       <c r="I244" t="n">
         <v>292000</v>
       </c>
-      <c r="J244" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9515,9 +9381,7 @@
       <c r="I245" t="n">
         <v>291900</v>
       </c>
-      <c r="J245" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,9 +9420,7 @@
       <c r="I246" t="n">
         <v>291600</v>
       </c>
-      <c r="J246" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,9 +9459,7 @@
       <c r="I247" t="n">
         <v>291600</v>
       </c>
-      <c r="J247" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9638,9 +9498,7 @@
       <c r="I248" t="n">
         <v>292000</v>
       </c>
-      <c r="J248" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9537,7 @@
       <c r="I249" t="n">
         <v>292000</v>
       </c>
-      <c r="J249" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,9 +9576,7 @@
       <c r="I250" t="n">
         <v>292900</v>
       </c>
-      <c r="J250" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9761,9 +9615,7 @@
       <c r="I251" t="n">
         <v>292800</v>
       </c>
-      <c r="J251" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9802,9 +9654,7 @@
       <c r="I252" t="n">
         <v>292500</v>
       </c>
-      <c r="J252" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9843,9 +9693,7 @@
       <c r="I253" t="n">
         <v>292500</v>
       </c>
-      <c r="J253" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,9 +9732,7 @@
       <c r="I254" t="n">
         <v>292500</v>
       </c>
-      <c r="J254" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,9 +9771,7 @@
       <c r="I255" t="n">
         <v>292500</v>
       </c>
-      <c r="J255" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9966,9 +9810,7 @@
       <c r="I256" t="n">
         <v>292300</v>
       </c>
-      <c r="J256" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,9 +9849,7 @@
       <c r="I257" t="n">
         <v>293000</v>
       </c>
-      <c r="J257" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,9 +9888,7 @@
       <c r="I258" t="n">
         <v>293000</v>
       </c>
-      <c r="J258" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10089,9 +9927,7 @@
       <c r="I259" t="n">
         <v>293500</v>
       </c>
-      <c r="J259" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10130,9 +9966,7 @@
       <c r="I260" t="n">
         <v>292900</v>
       </c>
-      <c r="J260" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10171,9 +10005,7 @@
       <c r="I261" t="n">
         <v>293100</v>
       </c>
-      <c r="J261" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10212,9 +10044,7 @@
       <c r="I262" t="n">
         <v>292900</v>
       </c>
-      <c r="J262" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10253,9 +10083,7 @@
       <c r="I263" t="n">
         <v>293400</v>
       </c>
-      <c r="J263" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10289,12 +10117,12 @@
         <v>1984.75585058</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>293800</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10328,12 +10156,12 @@
         <v>1984.75585058</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>293800</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10370,9 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,12 +10232,12 @@
         <v>1985.73995058</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>292100</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10445,12 +10271,12 @@
         <v>1985.73995058</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>293100</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10484,12 +10310,12 @@
         <v>1982.06755058</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>293100</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10526,9 +10352,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10567,9 +10391,7 @@
       <c r="I271" t="n">
         <v>293300</v>
       </c>
-      <c r="J271" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10606,9 +10428,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10645,9 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,9 +10502,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10723,9 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10759,12 +10573,12 @@
         <v>2001.12935058</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>292900</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,9 +10615,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10840,9 +10652,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10876,12 +10686,12 @@
         <v>2043.31955058</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>293100</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,9 +10728,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10957,9 +10765,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10993,12 +10799,12 @@
         <v>2044.27255058</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>293900</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11032,12 +10838,12 @@
         <v>2049.72955058</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>293300</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11071,12 +10877,12 @@
         <v>2046.52535058</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>293400</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,9 +10919,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11152,9 +10956,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11191,9 +10993,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11230,9 +11030,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,9 +11067,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11305,12 +11101,12 @@
         <v>1718.64645058</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>291600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>292700</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,9 +11143,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,9 +11180,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11425,9 +11217,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11461,14 +11251,10 @@
         <v>1737.03005058</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J294" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11502,14 +11288,10 @@
         <v>1737.03005058</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J295" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,14 +11325,10 @@
         <v>1737.03005058</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>293400</v>
-      </c>
-      <c r="J296" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,9 +11365,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11626,9 +11402,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11665,9 +11439,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11704,9 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,9 +11513,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,9 +11550,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11821,9 +11587,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11860,9 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,9 +11661,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,9 +11698,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11977,9 +11735,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12016,9 +11772,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,9 +11809,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12094,9 +11846,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12133,9 +11883,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12172,9 +11920,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12211,9 +11957,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,9 +11994,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12289,9 +12031,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12328,9 +12068,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12367,9 +12105,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12406,9 +12142,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,9 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12484,9 +12216,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12523,9 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12562,9 +12290,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,9 +12327,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12640,9 +12364,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,9 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,9 +12438,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,9 +12475,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12796,9 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12835,9 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12874,9 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12913,9 +12623,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12952,9 +12660,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12991,9 +12697,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,9 +12734,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,9 +12771,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13108,9 +12808,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13147,9 +12845,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13186,9 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13225,9 +12919,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13264,9 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13303,9 +12993,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13342,9 +13030,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13381,9 +13067,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13420,9 +13104,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13459,9 +13141,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,9 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13537,9 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,9 +13252,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13615,9 +13289,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13654,9 +13326,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13693,9 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13732,9 +13400,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13771,9 +13437,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13810,9 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13849,9 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13888,9 +13548,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13927,9 +13585,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,9 +13622,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,9 +13659,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,9 +13696,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14083,9 +13733,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14119,20 +13767,16 @@
         <v>2544.920303960001</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>291600</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -14158,17 +13802,11 @@
         <v>2399.857197380001</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14197,17 +13835,11 @@
         <v>2524.375597380001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14236,17 +13868,11 @@
         <v>2565.015097380001</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14275,17 +13901,11 @@
         <v>2621.434873510001</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14314,17 +13934,11 @@
         <v>2741.954573510001</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14353,17 +13967,11 @@
         <v>2826.095486310001</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14392,17 +14000,11 @@
         <v>2924.511173510001</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14431,17 +14033,11 @@
         <v>3141.559973510001</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14470,17 +14066,11 @@
         <v>3041.748373510001</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14509,17 +14099,11 @@
         <v>3132.326873510001</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14548,17 +14132,11 @@
         <v>3219.262873510001</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14587,17 +14165,11 @@
         <v>3160.106573510001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14626,17 +14198,11 @@
         <v>3182.624472140001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14665,17 +14231,11 @@
         <v>3135.692272140001</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14704,17 +14264,11 @@
         <v>3101.237272140001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14743,17 +14297,11 @@
         <v>3115.701072140001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14782,17 +14330,11 @@
         <v>3151.549972140001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14821,17 +14363,11 @@
         <v>3129.341776000001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14860,17 +14396,11 @@
         <v>3008.505176000001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14899,17 +14429,11 @@
         <v>2890.401376000001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14938,17 +14462,11 @@
         <v>2836.420976000001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14977,17 +14495,11 @@
         <v>2736.936776000001</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15016,17 +14528,11 @@
         <v>2611.765276000001</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15055,17 +14561,11 @@
         <v>2588.800576000001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15094,17 +14594,11 @@
         <v>2669.023559860002</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15133,17 +14627,11 @@
         <v>2740.363500650002</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15172,17 +14660,11 @@
         <v>2807.060374410002</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15211,17 +14693,11 @@
         <v>2763.984429770001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15250,17 +14726,11 @@
         <v>2786.471685130001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15289,17 +14759,11 @@
         <v>2789.854385130001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15328,17 +14792,11 @@
         <v>2770.638685130001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15367,17 +14825,11 @@
         <v>2749.039584000001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15406,17 +14858,11 @@
         <v>2742.056784000001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15445,17 +14891,11 @@
         <v>2849.086484000001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15484,17 +14924,11 @@
         <v>2874.695984000001</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15523,17 +14957,11 @@
         <v>2876.357384000001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15562,17 +14990,11 @@
         <v>2911.145184000001</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15601,17 +15023,11 @@
         <v>2932.335937770001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15640,17 +15056,11 @@
         <v>3025.357137770001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15679,17 +15089,11 @@
         <v>3080.972837770001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15718,17 +15122,11 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15757,17 +15155,11 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15799,14 +15191,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15838,14 +15224,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15877,14 +15257,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15916,14 +15290,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15955,14 +15323,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15994,14 +15356,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16033,14 +15389,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16072,14 +15422,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16111,14 +15455,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16150,14 +15488,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16189,14 +15521,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16228,14 +15554,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16267,14 +15587,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16306,14 +15620,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16345,14 +15653,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16384,14 +15686,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16423,14 +15719,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16462,14 +15752,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16501,14 +15785,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16540,14 +15818,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16579,14 +15851,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16618,14 +15884,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16657,14 +15917,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16696,14 +15950,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16735,14 +15983,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16774,14 +16016,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16813,14 +16049,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16852,14 +16082,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16891,14 +16115,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16930,14 +16148,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16969,14 +16181,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17008,14 +16214,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17047,14 +16247,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17086,14 +16280,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17125,14 +16313,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17164,14 +16346,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17203,14 +16379,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17242,14 +16412,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17281,14 +16445,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17320,14 +16478,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17359,14 +16511,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17398,14 +16544,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17437,14 +16577,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17476,14 +16610,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17515,14 +16643,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17554,14 +16676,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17593,14 +16709,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17632,14 +16742,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17671,14 +16775,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17710,14 +16808,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17749,14 +16841,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17788,14 +16874,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17827,14 +16907,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17866,14 +16940,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17905,14 +16973,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17944,14 +17006,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17983,14 +17039,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18022,14 +17072,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18058,23 +17102,15 @@
         <v>3747.445609580002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>291600</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
-        <v>1.074561042524006</v>
-      </c>
-      <c r="M463" t="n">
-        <v>1.048109965635739</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -18099,7 +17135,7 @@
         <v>3709.046112760002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18132,7 +17168,7 @@
         <v>3590.134572180002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18165,7 +17201,7 @@
         <v>3494.671272180002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18198,7 +17234,7 @@
         <v>3546.734972180002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18231,7 +17267,7 @@
         <v>3535.500472180002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18264,7 +17300,7 @@
         <v>3564.230272180002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18297,7 +17333,7 @@
         <v>3540.774972180002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18330,7 +17366,7 @@
         <v>3512.166172180002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18363,7 +17399,7 @@
         <v>3532.007764510002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18396,7 +17432,7 @@
         <v>3495.437652500003</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18429,7 +17465,7 @@
         <v>3389.783052500003</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18462,7 +17498,7 @@
         <v>3391.683052500003</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18495,7 +17531,7 @@
         <v>3417.545452500003</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18528,7 +17564,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18561,7 +17597,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18594,7 +17630,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18627,7 +17663,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18660,7 +17696,7 @@
         <v>3404.274593530003</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18693,7 +17729,7 @@
         <v>3406.697693530003</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18726,7 +17762,7 @@
         <v>3390.557793530003</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18759,7 +17795,7 @@
         <v>3371.159193530003</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18792,7 +17828,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18825,7 +17861,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18858,7 +17894,7 @@
         <v>3350.277693530003</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19221,7 +18257,7 @@
         <v>3416.087893530003</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19254,7 +18290,7 @@
         <v>3439.771393530003</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19287,7 +18323,7 @@
         <v>3439.771393530003</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19320,7 +18356,7 @@
         <v>3392.667293530003</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19353,7 +18389,7 @@
         <v>3249.429693530003</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19386,7 +18422,7 @@
         <v>3234.193593530003</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19419,7 +18455,7 @@
         <v>3165.489793530003</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19452,7 +18488,7 @@
         <v>3032.467893530003</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19485,7 +18521,7 @@
         <v>3122.612293530003</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19518,7 +18554,7 @@
         <v>3072.108893530003</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19551,7 +18587,7 @@
         <v>3052.010493530003</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19584,7 +18620,7 @@
         <v>3087.746493530003</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19617,7 +18653,7 @@
         <v>3087.746493530003</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19650,7 +18686,7 @@
         <v>3054.745293530003</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19683,7 +18719,7 @@
         <v>3383.713193530003</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19716,7 +18752,7 @@
         <v>3384.792293530003</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19749,7 +18785,7 @@
         <v>3425.948593530003</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19782,7 +18818,7 @@
         <v>3501.699993530003</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19815,7 +18851,7 @@
         <v>3480.186593530003</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19848,7 +18884,7 @@
         <v>3480.186593530003</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19881,7 +18917,7 @@
         <v>3483.069193530003</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19914,7 +18950,7 @@
         <v>3449.926793530003</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19947,7 +18983,7 @@
         <v>3463.449993530003</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19980,7 +19016,7 @@
         <v>3376.191893530003</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20046,7 +19082,7 @@
         <v>3304.411452660003</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20079,7 +19115,7 @@
         <v>3302.037652660003</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -27735,7 +26771,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27768,7 +26804,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27801,7 +26837,7 @@
         <v>3794.846042190002</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27834,7 +26870,7 @@
         <v>3842.364042190002</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27867,7 +26903,7 @@
         <v>3906.781042190002</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27900,7 +26936,7 @@
         <v>3933.529542190002</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27933,7 +26969,7 @@
         <v>3931.592442190002</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27966,7 +27002,7 @@
         <v>3931.592442190002</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27999,7 +27035,7 @@
         <v>3931.575742190002</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28032,7 +27068,7 @@
         <v>3990.240742190002</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28065,7 +27101,7 @@
         <v>4000.240742190002</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28098,7 +27134,7 @@
         <v>3999.240742190002</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28131,7 +27167,7 @@
         <v>3991.311242190001</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28164,7 +27200,7 @@
         <v>3987.954043500001</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28758,7 +27794,7 @@
         <v>4075.316486500001</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28791,7 +27827,7 @@
         <v>4091.632386500001</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28824,7 +27860,7 @@
         <v>4057.223686500001</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28857,7 +27893,7 @@
         <v>4085.966886500001</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28890,7 +27926,7 @@
         <v>4085.666886500001</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28923,7 +27959,7 @@
         <v>4087.113586790001</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28956,7 +27992,7 @@
         <v>4089.161869710001</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28989,7 +28025,7 @@
         <v>4086.933968740001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29022,7 +28058,7 @@
         <v>4086.933968740001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29055,7 +28091,7 @@
         <v>4088.564268740001</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29121,7 +28157,7 @@
         <v>4086.086268740001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29187,7 +28223,7 @@
         <v>4075.857068740001</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -33444,7 +32480,7 @@
         <v>3976.667141489999</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33510,7 +32546,7 @@
         <v>3976.667141489999</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33543,7 +32579,7 @@
         <v>3954.753841489999</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33576,7 +32612,7 @@
         <v>3972.496840049999</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33609,7 +32645,7 @@
         <v>3914.221340049999</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33642,7 +32678,7 @@
         <v>3887.577740049999</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33675,7 +32711,7 @@
         <v>3884.924340049999</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34137,7 +33173,7 @@
         <v>3528.414679869998</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34170,7 +33206,7 @@
         <v>3528.414679869998</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34203,7 +33239,7 @@
         <v>3512.041279869998</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34335,7 +33371,7 @@
         <v>3032.705145669998</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34368,7 +33404,7 @@
         <v>3116.534945669998</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34401,7 +33437,7 @@
         <v>3125.455445669998</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -39384,7 +38420,7 @@
         <v>2741.960897559999</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39417,7 +38453,7 @@
         <v>2742.532398539999</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39450,7 +38486,7 @@
         <v>2723.682598539999</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39483,7 +38519,7 @@
         <v>2722.882598539999</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39516,7 +38552,7 @@
         <v>2727.073198539998</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39549,7 +38585,7 @@
         <v>2723.576998539998</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39582,7 +38618,7 @@
         <v>2713.188298539998</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39615,7 +38651,7 @@
         <v>2703.253398539998</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39648,7 +38684,7 @@
         <v>2705.455198539998</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39681,7 +38717,7 @@
         <v>2795.725322369998</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39714,7 +38750,7 @@
         <v>2793.725322369998</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39747,7 +38783,7 @@
         <v>2786.978422369998</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -40176,7 +39212,7 @@
         <v>2849.264196629998</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40209,7 +39245,7 @@
         <v>2818.516996629998</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40242,7 +39278,7 @@
         <v>2843.398396629998</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40275,7 +39311,7 @@
         <v>2842.370896629998</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40308,7 +39344,7 @@
         <v>2844.011196629998</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40341,7 +39377,7 @@
         <v>2812.403397679998</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40374,7 +39410,7 @@
         <v>2822.578397679998</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40385,6 +39421,6 @@
       <c r="M1139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BCH.xlsx
+++ b/BackTest/2020-01-12 BackTest BCH.xlsx
@@ -2431,17 +2431,11 @@
         <v>1746.21575039</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>294600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2470,17 +2464,11 @@
         <v>1768.94945039</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>293500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2509,17 +2497,11 @@
         <v>1763.46055039</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>294100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2548,17 +2530,11 @@
         <v>1800.40215039</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>293200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2587,17 +2563,11 @@
         <v>1796.34255039</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2663,17 +2629,11 @@
         <v>1802.83675039</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2702,17 +2662,11 @@
         <v>1811.03785039</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>293800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2745,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2778,17 +2728,11 @@
         <v>1810.74555039</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>293400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2817,17 +2761,11 @@
         <v>1809.44445039</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>293800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2856,17 +2794,11 @@
         <v>1809.44445039</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2895,17 +2827,11 @@
         <v>1812.92835039</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2934,17 +2860,11 @@
         <v>1869.45545039</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>293700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2926,11 @@
         <v>1970.00025039</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>294100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3123,17 +3025,11 @@
         <v>1826.13205039</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>292700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3162,17 +3058,11 @@
         <v>1926.38175039</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3201,17 +3091,11 @@
         <v>1849.88735039</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3240,17 +3124,11 @@
         <v>1841.07755039</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>291700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3279,17 +3157,11 @@
         <v>1842.89135039</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>291100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3318,17 +3190,11 @@
         <v>1922.31265039</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>291500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3357,17 +3223,11 @@
         <v>1922.85445039</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>292000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3396,17 +3256,11 @@
         <v>1907.86365039</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3435,17 +3289,11 @@
         <v>1910.09835039</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3474,17 +3322,11 @@
         <v>1911.50405039</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>291800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3513,17 +3355,11 @@
         <v>1909.50405039</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>292000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3552,17 +3388,11 @@
         <v>1909.50405039</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3591,17 +3421,11 @@
         <v>1986.31785039</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3630,17 +3454,11 @@
         <v>2019.20975039</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>292300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3669,17 +3487,11 @@
         <v>2055.11805093</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3708,17 +3520,11 @@
         <v>2049.35265093</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>292500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3747,17 +3553,11 @@
         <v>2025.28535093</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>292300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3786,17 +3586,11 @@
         <v>2029.04935093</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>292000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3825,17 +3619,11 @@
         <v>1951.09745093</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>292100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3864,17 +3652,11 @@
         <v>1951.09745093</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>291700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3903,17 +3685,11 @@
         <v>1954.40065093</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>291700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3942,17 +3718,11 @@
         <v>1943.08525093</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>292000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3989,7 +3759,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -4644,9 +4414,11 @@
         <v>2151.70595093</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>294000</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4681,9 +4453,11 @@
         <v>2185.42915093</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>295600</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -6531,11 +6305,9 @@
         <v>1991.1590574</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>291300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6570,11 +6342,9 @@
         <v>1991.1590574</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>292600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6609,11 +6379,9 @@
         <v>1962.2890574</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>292600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6648,11 +6416,9 @@
         <v>1965.7890574</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>291800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6687,11 +6453,9 @@
         <v>1969.7890574</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6726,11 +6490,9 @@
         <v>1970.0390574</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6765,11 +6527,9 @@
         <v>1956.1069574</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>292600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6804,11 +6564,9 @@
         <v>1967.8439574</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>292100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6843,11 +6601,9 @@
         <v>1967.8340574</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>292600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6882,11 +6638,9 @@
         <v>1967.8340574</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6921,11 +6675,9 @@
         <v>1967.8340574</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6960,11 +6712,9 @@
         <v>2017.9547574</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6999,11 +6749,9 @@
         <v>2017.9547574</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7038,11 +6786,9 @@
         <v>2035.3204574</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7077,11 +6823,9 @@
         <v>2048.4116574</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>293700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -8522,11 +8266,9 @@
         <v>1982.08755058</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8598,11 +8340,9 @@
         <v>1932.25395058</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>292300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8637,11 +8377,9 @@
         <v>1932.36125058</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8676,11 +8414,9 @@
         <v>1931.86125058</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>292300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8715,11 +8451,9 @@
         <v>1945.60635058</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8754,11 +8488,9 @@
         <v>1947.10635058</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>292500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8830,11 +8562,9 @@
         <v>1968.40605058</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>293000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8869,11 +8599,9 @@
         <v>1965.47415058</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8908,11 +8636,9 @@
         <v>1954.20985058</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8947,11 +8673,9 @@
         <v>1953.70985058</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>292100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8986,11 +8710,9 @@
         <v>1954.33685058</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9025,11 +8747,9 @@
         <v>1979.24265058</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>292100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9064,11 +8784,9 @@
         <v>1969.56635058</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9103,11 +8821,9 @@
         <v>1964.03045058</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>291800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9142,11 +8858,9 @@
         <v>1975.74475058</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>291600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9181,11 +8895,9 @@
         <v>1976.24475058</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>291800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9220,11 +8932,9 @@
         <v>1975.81445058</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>292400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9259,11 +8969,9 @@
         <v>1975.81445058</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -10000,11 +9708,9 @@
         <v>1981.90095058</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>293100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10117,11 +9823,9 @@
         <v>1984.75585058</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>293800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10156,11 +9860,9 @@
         <v>1984.75585058</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>293800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10232,11 +9934,9 @@
         <v>1985.73995058</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>292100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10271,11 +9971,9 @@
         <v>1985.73995058</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>293100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10310,11 +10008,9 @@
         <v>1982.06755058</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>293100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10386,11 +10082,9 @@
         <v>2048.25985058</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10573,11 +10267,9 @@
         <v>2001.12935058</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>292900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10686,11 +10378,9 @@
         <v>2043.31955058</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>293100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10799,11 +10489,9 @@
         <v>2044.27255058</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10838,11 +10526,9 @@
         <v>2049.72955058</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10877,11 +10563,9 @@
         <v>2046.52535058</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>293400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11101,11 +10785,9 @@
         <v>1718.64645058</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>292700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -13767,16 +13449,18 @@
         <v>2544.920303960001</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
       <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -13802,11 +13486,15 @@
         <v>2399.857197380001</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13835,11 +13523,15 @@
         <v>2524.375597380001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13868,11 +13560,15 @@
         <v>2565.015097380001</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13901,11 +13597,15 @@
         <v>2621.434873510001</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13934,11 +13634,15 @@
         <v>2741.954573510001</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13967,11 +13671,15 @@
         <v>2826.095486310001</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14000,11 +13708,15 @@
         <v>2924.511173510001</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14033,11 +13745,15 @@
         <v>3141.559973510001</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14066,11 +13782,15 @@
         <v>3041.748373510001</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14099,11 +13819,15 @@
         <v>3132.326873510001</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14132,11 +13856,15 @@
         <v>3219.262873510001</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +13893,15 @@
         <v>3160.106573510001</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14198,11 +13930,15 @@
         <v>3182.624472140001</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14231,11 +13967,15 @@
         <v>3135.692272140001</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14264,11 +14004,15 @@
         <v>3101.237272140001</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14297,11 +14041,15 @@
         <v>3115.701072140001</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14330,11 +14078,15 @@
         <v>3151.549972140001</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14363,11 +14115,15 @@
         <v>3129.341776000001</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14396,11 +14152,15 @@
         <v>3008.505176000001</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14429,11 +14189,15 @@
         <v>2890.401376000001</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +14226,15 @@
         <v>2836.420976000001</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14495,11 +14263,15 @@
         <v>2736.936776000001</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14528,11 +14300,15 @@
         <v>2611.765276000001</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14561,11 +14337,15 @@
         <v>2588.800576000001</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14594,11 +14374,15 @@
         <v>2669.023559860002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14627,11 +14411,15 @@
         <v>2740.363500650002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14660,11 +14448,15 @@
         <v>2807.060374410002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14693,11 +14485,15 @@
         <v>2763.984429770001</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14726,11 +14522,15 @@
         <v>2786.471685130001</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14759,11 +14559,15 @@
         <v>2789.854385130001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14792,11 +14596,15 @@
         <v>2770.638685130001</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14825,11 +14633,15 @@
         <v>2749.039584000001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14858,11 +14670,15 @@
         <v>2742.056784000001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14891,11 +14707,15 @@
         <v>2849.086484000001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14924,11 +14744,15 @@
         <v>2874.695984000001</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14957,11 +14781,15 @@
         <v>2876.357384000001</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14990,11 +14818,15 @@
         <v>2911.145184000001</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15023,11 +14855,15 @@
         <v>2932.335937770001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15056,11 +14892,15 @@
         <v>3025.357137770001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15089,11 +14929,15 @@
         <v>3080.972837770001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15122,11 +14966,15 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15155,11 +15003,15 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15192,7 +15044,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15225,7 +15081,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15258,7 +15118,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15291,7 +15155,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15324,7 +15192,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15357,7 +15229,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15390,7 +15266,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15423,7 +15303,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15456,7 +15340,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15489,7 +15377,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15522,7 +15414,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15555,7 +15451,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15588,7 +15488,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15621,7 +15525,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15654,7 +15562,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15687,7 +15599,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15720,7 +15636,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +15673,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15786,7 +15710,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15819,7 +15747,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15852,7 +15784,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15885,7 +15821,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15918,7 +15858,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15951,7 +15895,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15984,7 +15932,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16017,7 +15969,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16050,7 +16006,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16083,7 +16043,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16116,7 +16080,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16149,7 +16117,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16182,7 +16154,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16215,7 +16191,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16248,7 +16228,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16281,7 +16265,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16314,7 +16302,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16347,7 +16339,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16380,7 +16376,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16413,7 +16413,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16446,7 +16450,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16479,7 +16487,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16512,7 +16524,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16545,7 +16561,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16578,7 +16598,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16611,7 +16635,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16644,7 +16672,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +16709,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16710,7 +16746,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16743,7 +16783,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16776,7 +16820,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16809,7 +16857,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16842,7 +16894,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16875,7 +16931,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +16968,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16941,7 +17005,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16970,14 +17038,16 @@
         <v>3866.973309580002</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr"/>
     </row>
     <row r="460">
@@ -17003,7 +17073,7 @@
         <v>3890.537609580002</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17036,7 +17106,7 @@
         <v>3763.445709580002</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17069,7 +17139,7 @@
         <v>3810.878009580002</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17102,7 +17172,7 @@
         <v>3747.445609580002</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17135,7 +17205,7 @@
         <v>3709.046112760002</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17168,7 +17238,7 @@
         <v>3590.134572180002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17201,7 +17271,7 @@
         <v>3494.671272180002</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17234,7 +17304,7 @@
         <v>3546.734972180002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17267,7 +17337,7 @@
         <v>3535.500472180002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17300,7 +17370,7 @@
         <v>3564.230272180002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17333,7 +17403,7 @@
         <v>3540.774972180002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17366,7 +17436,7 @@
         <v>3512.166172180002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17399,7 +17469,7 @@
         <v>3532.007764510002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17432,7 +17502,7 @@
         <v>3495.437652500003</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17465,7 +17535,7 @@
         <v>3389.783052500003</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17498,7 +17568,7 @@
         <v>3391.683052500003</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17531,7 +17601,7 @@
         <v>3417.545452500003</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17564,7 +17634,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17597,7 +17667,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17630,7 +17700,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17663,7 +17733,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17696,7 +17766,7 @@
         <v>3404.274593530003</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17729,7 +17799,7 @@
         <v>3406.697693530003</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17762,7 +17832,7 @@
         <v>3390.557793530003</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17795,7 +17865,7 @@
         <v>3371.159193530003</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17828,7 +17898,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17861,7 +17931,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17894,7 +17964,7 @@
         <v>3350.277693530003</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17927,7 +17997,7 @@
         <v>3290.420593530003</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17960,7 +18030,7 @@
         <v>3427.789093530003</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17993,7 +18063,7 @@
         <v>3412.087693530003</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18026,7 +18096,7 @@
         <v>3332.602493530003</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18059,7 +18129,7 @@
         <v>3520.824993530003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18092,7 +18162,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18125,7 +18195,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18158,7 +18228,7 @@
         <v>3479.262793530003</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -38420,7 +38490,7 @@
         <v>2741.960897559999</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38453,7 +38523,7 @@
         <v>2742.532398539999</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38486,7 +38556,7 @@
         <v>2723.682598539999</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38519,7 +38589,7 @@
         <v>2722.882598539999</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38552,7 +38622,7 @@
         <v>2727.073198539998</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38585,7 +38655,7 @@
         <v>2723.576998539998</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38618,7 +38688,7 @@
         <v>2713.188298539998</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38651,7 +38721,7 @@
         <v>2703.253398539998</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38684,7 +38754,7 @@
         <v>2705.455198539998</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38717,7 +38787,7 @@
         <v>2795.725322369998</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38750,7 +38820,7 @@
         <v>2793.725322369998</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38783,7 +38853,7 @@
         <v>2786.978422369998</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39212,7 +39282,7 @@
         <v>2849.264196629998</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39245,7 +39315,7 @@
         <v>2818.516996629998</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39278,7 +39348,7 @@
         <v>2843.398396629998</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39311,7 +39381,7 @@
         <v>2842.370896629998</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39344,7 +39414,7 @@
         <v>2844.011196629998</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39377,7 +39447,7 @@
         <v>2812.403397679998</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39410,7 +39480,7 @@
         <v>2822.578397679998</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
